--- a/zF2.xlsx
+++ b/zF2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny\OneDrive\Documents\GitHub\leafy-green\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny\Documents\GitHub\leafy-green\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96205EA8-BA83-4623-A38E-57BE7265BC56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581208FC-D4F7-4B64-98F7-CC6753041AF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column" sheetId="1" r:id="rId1"/>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1484,7 @@
         <v>34.825962962962961</v>
       </c>
       <c r="T2">
-        <v>18.271713787829729</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U2">
         <v>0.95738324067912828</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="W2">
         <f>S2-T2+U2+V2</f>
-        <v>18.036667881963769</v>
+        <v>1.3203995244405959</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>25.394749999999998</v>
       </c>
       <c r="T3">
-        <v>18.271713787829729</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U3">
         <v>0.95738324067912828</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W66" si="3">S3-T3+U3+V3</f>
-        <v>10.680345361891247</v>
+        <v>-6.0359229956319265</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>25.506498148148147</v>
       </c>
       <c r="T4">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U4">
         <v>0.95738324067909986</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="3"/>
-        <v>10.761423476369336</v>
+        <v>-5.9548448811538659</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>32.688055555555557</v>
       </c>
       <c r="T5">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U5">
         <v>0.95738324067909986</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="3"/>
-        <v>14.911469099264959</v>
+        <v>-1.8047992582582424</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>30.977249999999998</v>
       </c>
       <c r="T6">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U6">
         <v>0.95738324067909986</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>14.455686270982131</v>
+        <v>-2.2605820865410706</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>29.192777777777778</v>
       </c>
       <c r="T7">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U7">
         <v>0.95738324067909986</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="3"/>
-        <v>12.210161018456876</v>
+        <v>-4.5061073390663253</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>36.940222222222225</v>
       </c>
       <c r="T8">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U8">
         <v>0.95738324067909986</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="3"/>
-        <v>18.7733630386589</v>
+        <v>2.0570946811356983</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>35.88144444444444</v>
       </c>
       <c r="T9">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U9">
         <v>0.95738324067909986</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="3"/>
-        <v>21.45541859421445</v>
+        <v>4.7391502366912484</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>31.134666666666668</v>
       </c>
       <c r="T10">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U10">
         <v>0.95738324067909986</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="3"/>
-        <v>12.247655967951829</v>
+        <v>-4.4686123895713727</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>38.043222222222219</v>
       </c>
       <c r="T11">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U11">
         <v>0.95738324067909986</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="3"/>
-        <v>17.760605462901317</v>
+        <v>1.0443371053781156</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>27.524333333333335</v>
       </c>
       <c r="T12">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U12">
         <v>0.95738324067909986</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="W12">
         <f t="shared" si="3"/>
-        <v>11.934443846739708</v>
+        <v>-4.781824510783494</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>34.024138888888892</v>
       </c>
       <c r="T13">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U13">
         <v>0.95738324067909986</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="3"/>
-        <v>18.636370614416474</v>
+        <v>1.9201022568932729</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>37.488666666666667</v>
       </c>
       <c r="T14">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U14">
         <v>0.95738324067909986</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="W14">
         <f t="shared" si="3"/>
-        <v>19.257605462901321</v>
+        <v>2.5413371053781191</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>36.023055555555558</v>
       </c>
       <c r="T15">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U15">
         <v>0.95738324067909986</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="W15">
         <f t="shared" si="3"/>
-        <v>15.342256978052841</v>
+        <v>-1.3740113794703603</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>31.879833333333337</v>
       </c>
       <c r="T16">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U16">
         <v>0.95738324067909986</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="3"/>
-        <v>15.917534755830619</v>
+        <v>-0.79873360169258234</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>36.593261111111111</v>
       </c>
       <c r="T17">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U17">
         <v>0.95738324067909986</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="3"/>
-        <v>15.487972634618497</v>
+        <v>-1.2282957229047042</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>29.02888888888889</v>
       </c>
       <c r="T18">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U18">
         <v>0.95738324067909986</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="3"/>
-        <v>12.21566606896193</v>
+        <v>-4.5006022885612715</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>28.799166666666665</v>
       </c>
       <c r="T19">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U19">
         <v>0.95738324067909986</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="3"/>
-        <v>11.72861051340637</v>
+        <v>-4.987657844116832</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>32.103527777777778</v>
       </c>
       <c r="T20">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U20">
         <v>0.95738324067909986</v>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="3"/>
-        <v>13.682335260881121</v>
+        <v>-3.0339330966420803</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>38.758805555555554</v>
       </c>
       <c r="T21">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U21">
         <v>0.95738324067909986</v>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="3"/>
-        <v>19.320734250780109</v>
+        <v>2.6044658932569078</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>27.02472222222222</v>
       </c>
       <c r="T22">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U22">
         <v>0.95738324067909986</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="3"/>
-        <v>11.517272129567985</v>
+        <v>-5.1989962279552167</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>24.285305555555556</v>
       </c>
       <c r="T23">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U23">
         <v>0.95738324067909986</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W23">
         <f t="shared" si="3"/>
-        <v>10.735416068961928</v>
+        <v>-5.9808522885612732</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>31.273027777777781</v>
       </c>
       <c r="T24">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U24">
         <v>0.95738324067909986</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="W24">
         <f t="shared" si="3"/>
-        <v>15.367838627884488</v>
+        <v>-1.3484297296387133</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>26.615152777777777</v>
       </c>
       <c r="T25">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U25">
         <v>0.95738324067909986</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
-        <v>10.254282050202907</v>
+        <v>-6.461986307320295</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>40.528222222222226</v>
       </c>
       <c r="T26">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U26">
         <v>0.95738324067909986</v>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="W26">
         <f t="shared" si="3"/>
-        <v>23.841969099264961</v>
+        <v>7.1257007417417597</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>28.110277777777778</v>
       </c>
       <c r="T27">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U27">
         <v>0.95738324067909986</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="W27">
         <f t="shared" si="3"/>
-        <v>10.924933745729604</v>
+        <v>-5.791334611793598</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>31.91386111111111</v>
       </c>
       <c r="T28">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U28">
         <v>0.95738324067909986</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="W28">
         <f t="shared" si="3"/>
-        <v>13.076471624517481</v>
+        <v>-3.6397967330057206</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>34.490416666666668</v>
       </c>
       <c r="T29">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U29">
         <v>0.95738324067909986</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="W29">
         <f t="shared" si="3"/>
-        <v>18.211455210376073</v>
+        <v>1.4951868528528713</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>44.922916666666666</v>
       </c>
       <c r="T30">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U30">
         <v>0.95738324067909986</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="W30">
         <f t="shared" si="3"/>
-        <v>24.065815058860913</v>
+        <v>7.3495467013377116</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -3398,7 +3398,7 @@
         <v>31.864722222222223</v>
       </c>
       <c r="T31">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U31">
         <v>0.95738324067909986</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="W31">
         <f t="shared" si="3"/>
-        <v>15.156408493204353</v>
+        <v>-1.5598598643188488</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3464,7 +3464,7 @@
         <v>30.042833333333331</v>
       </c>
       <c r="T32">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U32">
         <v>0.95738324067909986</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="W32">
         <f t="shared" si="3"/>
-        <v>13.088155967951824</v>
+        <v>-3.6281123895713776</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>37.486055555555559</v>
       </c>
       <c r="T33">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U33">
         <v>0.95738324067909986</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="W33">
         <f t="shared" si="3"/>
-        <v>19.404044856840724</v>
+        <v>2.6877764993175219</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>37.258249999999997</v>
       </c>
       <c r="T34">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U34">
         <v>0.95738324067909986</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="W34">
         <f t="shared" si="3"/>
-        <v>21.761693846739703</v>
+        <v>5.0454254892165018</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
         <v>32.009</v>
       </c>
       <c r="T35">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U35">
         <v>0.95738324067909986</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="W35">
         <f t="shared" si="3"/>
-        <v>15.160322634618492</v>
+        <v>-1.5559457229047098</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>37.817547619047623</v>
       </c>
       <c r="T36">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U36">
         <v>0.95738324067909986</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="W36">
         <f t="shared" si="3"/>
-        <v>17.462076581651854</v>
+        <v>0.74580822412865189</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>38.162711111111108</v>
       </c>
       <c r="T37">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U37">
         <v>0.95738324067909986</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="W37">
         <f t="shared" si="3"/>
-        <v>20.608882230578086</v>
+        <v>3.8926138730548843</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>31.750250000000001</v>
       </c>
       <c r="T38">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U38">
         <v>0.95738324067909986</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="W38">
         <f t="shared" si="3"/>
-        <v>15.024569267615128</v>
+        <v>-1.6916990899080737</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
         <v>48.036333333333339</v>
       </c>
       <c r="T39">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U39">
         <v>0.95738324067909986</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="W39">
         <f t="shared" si="3"/>
-        <v>25.698898392194256</v>
+        <v>8.9826300346710539</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
         <v>34.408027777777775</v>
       </c>
       <c r="T40">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U40">
         <v>0.95738324067909986</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="W40">
         <f t="shared" si="3"/>
-        <v>16.018751927547783</v>
+        <v>-0.69751642997541907</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>39.005344444444447</v>
       </c>
       <c r="T41">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U41">
         <v>0.95738324067909986</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="W41">
         <f t="shared" si="3"/>
-        <v>18.485954957850819</v>
+        <v>1.769686600327617</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>35.192</v>
       </c>
       <c r="T42">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U42">
         <v>0.95738324067909986</v>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="W42">
         <f t="shared" si="3"/>
-        <v>18.119246877042734</v>
+        <v>1.4029785195195323</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>42.74088888888889</v>
       </c>
       <c r="T43">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U43">
         <v>0.95738324067909986</v>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="W43">
         <f t="shared" si="3"/>
-        <v>21.334650917446776</v>
+        <v>4.6183825599235746</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>42.972944444444444</v>
       </c>
       <c r="T44">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U44">
         <v>0.95738324067909986</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="W44">
         <f t="shared" si="3"/>
-        <v>25.506236776032633</v>
+        <v>8.7899684185094316</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -4322,7 +4322,7 @@
         <v>25.270166666666668</v>
       </c>
       <c r="T45">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U45">
         <v>0.95738324067909986</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="W45">
         <f t="shared" si="3"/>
-        <v>11.902034755830618</v>
+        <v>-4.8142336016925835</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>39.771402380952381</v>
       </c>
       <c r="T46">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U46">
         <v>0.95738324067909986</v>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="W46">
         <f t="shared" si="3"/>
-        <v>21.632735621631479</v>
+        <v>4.9164672641082774</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -4454,7 +4454,7 @@
         <v>32.586416666666665</v>
       </c>
       <c r="T47">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U47">
         <v>0.95738324067909986</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="W47">
         <f t="shared" si="3"/>
-        <v>18.592890816436672</v>
+        <v>1.8766224589134719</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
         <v>26.461555555555556</v>
       </c>
       <c r="T48">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U48">
         <v>0.95738324067909986</v>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="W48">
         <f t="shared" si="3"/>
-        <v>11.633181220477079</v>
+        <v>-5.0830871370461228</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -4586,7 +4586,7 @@
         <v>30.772972222222222</v>
       </c>
       <c r="T49">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U49">
         <v>0.95738324067909986</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="W49">
         <f t="shared" si="3"/>
-        <v>16.340658493204351</v>
+        <v>-0.37560986431885013</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
         <v>42.80522222222222</v>
       </c>
       <c r="T50">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U50">
         <v>0.95738324067909986</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="W50">
         <f t="shared" si="3"/>
-        <v>25.677302432598285</v>
+        <v>8.9610340750750836</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -4718,7 +4718,7 @@
         <v>40.976888888888887</v>
       </c>
       <c r="T51">
-        <v>18.271713787829729</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U51">
         <v>-0.34486146469552281</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="W51">
         <f t="shared" si="3"/>
-        <v>22.885349102515043</v>
+        <v>6.1690807449918701</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -4784,7 +4784,7 @@
         <v>28.067833333333333</v>
       </c>
       <c r="T52">
-        <v>18.271713787829729</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U52">
         <v>-0.34486146469552281</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="W52">
         <f t="shared" si="3"/>
-        <v>12.05118398984993</v>
+        <v>-4.6650843676732432</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -4850,7 +4850,7 @@
         <v>32.981083333333331</v>
       </c>
       <c r="T53">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U53">
         <v>-0.34486146469560097</v>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="W53">
         <f t="shared" si="3"/>
-        <v>16.933763956179817</v>
+        <v>0.21749559865661716</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>38.145388888888888</v>
       </c>
       <c r="T54">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U54">
         <v>-0.34486146469560097</v>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="W54">
         <f t="shared" si="3"/>
-        <v>19.066557727223589</v>
+        <v>2.3502893697003877</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -4982,7 +4982,7 @@
         <v>31.779083333333332</v>
       </c>
       <c r="T55">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U55">
         <v>-0.34486146469560097</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="W55">
         <f t="shared" si="3"/>
-        <v>13.955274898940765</v>
+        <v>-2.7609934585824369</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5048,7 +5048,7 @@
         <v>37.251527777777774</v>
       </c>
       <c r="T56">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U56">
         <v>-0.34486146469560097</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="W56">
         <f t="shared" si="3"/>
-        <v>18.966666313082172</v>
+        <v>2.2503979555589702</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
         <v>37.803916666666666</v>
       </c>
       <c r="T57">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U57">
         <v>-0.34486146469560097</v>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="W57">
         <f t="shared" si="3"/>
-        <v>18.33481277772864</v>
+        <v>1.6185444202054384</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
         <v>26.877166666666668</v>
       </c>
       <c r="T58">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U58">
         <v>-0.34486146469560097</v>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="W58">
         <f t="shared" si="3"/>
-        <v>11.148896111061976</v>
+        <v>-5.5673722464612254</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>29.03338888888889</v>
       </c>
       <c r="T59">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U59">
         <v>-0.34486146469560097</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="W59">
         <f t="shared" si="3"/>
-        <v>11.54534560601147</v>
+        <v>-5.170922751511732</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>35.275694444444447</v>
       </c>
       <c r="T60">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U60">
         <v>-0.34486146469560097</v>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="W60">
         <f t="shared" si="3"/>
-        <v>15.086439040354907</v>
+        <v>-1.6298293171682943</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>38.243805555555554</v>
       </c>
       <c r="T61">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U61">
         <v>-0.34486146469560097</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="W61">
         <f t="shared" si="3"/>
-        <v>16.658944090859951</v>
+        <v>-5.7324266663250967E-2</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
         <v>35.195444444444448</v>
       </c>
       <c r="T62">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U62">
         <v>-0.34486146469560097</v>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="W62">
         <f t="shared" si="3"/>
-        <v>18.30331025247612</v>
+        <v>1.5870418949529181</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -5510,7 +5510,7 @@
         <v>29.816402777777778</v>
       </c>
       <c r="T63">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U63">
         <v>-0.34486146469560097</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="W63">
         <f t="shared" si="3"/>
-        <v>13.12638979793066</v>
+        <v>-3.5898785595925418</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>36.377250000000004</v>
       </c>
       <c r="T64">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U64">
         <v>-0.34486146469560097</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="W64">
         <f t="shared" si="3"/>
-        <v>16.843944090859956</v>
+        <v>0.12767573333675486</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
         <v>40.789777777777779</v>
       </c>
       <c r="T65">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U65">
         <v>-0.34486146469560097</v>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="W65">
         <f t="shared" si="3"/>
-        <v>18.806734494900361</v>
+        <v>2.0904661373771596</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>31.705888888888889</v>
       </c>
       <c r="T66">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U66">
         <v>-0.34486146469560097</v>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="W66">
         <f t="shared" si="3"/>
-        <v>14.44134560601147</v>
+        <v>-2.2749227515117312</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -5774,7 +5774,7 @@
         <v>38.005166666666668</v>
       </c>
       <c r="T67">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U67">
         <v>-0.34486146469560097</v>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="W67">
         <f t="shared" ref="W67:W130" si="7">S67-T67+U67+V67</f>
-        <v>15.597633484799353</v>
+        <v>-1.1186348727238489</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
         <v>30.423833333333334</v>
       </c>
       <c r="T68">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U68">
         <v>-0.34486146469560097</v>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="W68">
         <f t="shared" si="7"/>
-        <v>12.308365808031674</v>
+        <v>-4.4079025494915278</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -5906,7 +5906,7 @@
         <v>34.139833333333335</v>
       </c>
       <c r="T69">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U69">
         <v>-0.34486146469560097</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="W69">
         <f t="shared" si="7"/>
-        <v>15.76703247469834</v>
+        <v>-0.94923588282486193</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>37.793305555555555</v>
       </c>
       <c r="T70">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U70">
         <v>-0.34486146469560097</v>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="W70">
         <f t="shared" si="7"/>
-        <v>18.069868333284198</v>
+        <v>1.3535999757609964</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>41.880527777777779</v>
       </c>
       <c r="T71">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U71">
         <v>-0.34486146469560097</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="W71">
         <f t="shared" si="7"/>
-        <v>21.140211767627633</v>
+        <v>4.4239434101044317</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
         <v>35.778083333333335</v>
       </c>
       <c r="T72">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U72">
         <v>-0.34486146469560097</v>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="W72">
         <f t="shared" si="7"/>
-        <v>18.968388535304399</v>
+        <v>2.2521201777811974</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6170,7 +6170,7 @@
         <v>25.35286111111111</v>
       </c>
       <c r="T73">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U73">
         <v>-0.34486146469560097</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="W73">
         <f t="shared" si="7"/>
-        <v>10.500726919142782</v>
+        <v>-6.2155414383804199</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6236,7 +6236,7 @@
         <v>37.080777777777776</v>
       </c>
       <c r="T74">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U74">
         <v>-0.34486146469560097</v>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="W74">
         <f t="shared" si="7"/>
-        <v>19.873343922509783</v>
+        <v>3.1570755649865809</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -6302,7 +6302,7 @@
         <v>39.652222222222221</v>
       </c>
       <c r="T75">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U75">
         <v>-0.34486146469560097</v>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="W75">
         <f t="shared" si="7"/>
-        <v>21.98910678927265</v>
+        <v>5.2728384317494488</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>37.44083333333333</v>
       </c>
       <c r="T76">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U76">
         <v>-0.34486146469560097</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="W76">
         <f t="shared" si="7"/>
-        <v>19.452335505001365</v>
+        <v>2.7360671474781633</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
         <v>40.683083333333336</v>
       </c>
       <c r="T77">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U77">
         <v>-0.34486146469560097</v>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="W77">
         <f t="shared" si="7"/>
-        <v>22.195494595910461</v>
+        <v>5.479226238387259</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>42.133138888888887</v>
       </c>
       <c r="T78">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U78">
         <v>-0.34486146469560097</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="W78">
         <f t="shared" si="7"/>
-        <v>21.993504696920557</v>
+        <v>5.2772363393973549</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>35.083611111111111</v>
       </c>
       <c r="T79">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U79">
         <v>-0.34486146469560097</v>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="W79">
         <f t="shared" si="7"/>
-        <v>17.502404949445815</v>
+        <v>0.78613659192261309</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>46.366</v>
       </c>
       <c r="T80">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U80">
         <v>-0.34486146469560097</v>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="W80">
         <f t="shared" si="7"/>
-        <v>24.206653686819546</v>
+        <v>7.4903853292963447</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -6698,7 +6698,7 @@
         <v>32.328527777777779</v>
       </c>
       <c r="T81">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U81">
         <v>-0.34486146469560097</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="W81">
         <f t="shared" si="7"/>
-        <v>14.317969343385208</v>
+        <v>-2.3982990141379936</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -6764,7 +6764,7 @@
         <v>36.079388888888886</v>
       </c>
       <c r="T82">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U82">
         <v>-0.34486146469560097</v>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="W82">
         <f t="shared" si="7"/>
-        <v>17.822466818132678</v>
+        <v>1.1061984606094768</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -6830,7 +6830,7 @@
         <v>32.328916666666672</v>
       </c>
       <c r="T83">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U83">
         <v>-0.34486146469560097</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="W83">
         <f t="shared" si="7"/>
-        <v>12.944661262577135</v>
+        <v>-3.7716070949460665</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>33.024583333333332</v>
       </c>
       <c r="T84">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U84">
         <v>-0.34486146469560097</v>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="W84">
         <f t="shared" si="7"/>
-        <v>16.225782474698338</v>
+        <v>-0.49048588282486349</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>38.760111111111108</v>
       </c>
       <c r="T85">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U85">
         <v>-0.34486146469560097</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="W85">
         <f t="shared" si="7"/>
-        <v>20.609189040354899</v>
+        <v>3.8929206828316971</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7028,7 +7028,7 @@
         <v>40.687027777777779</v>
       </c>
       <c r="T86">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U86">
         <v>-0.34486146469560097</v>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="W86">
         <f t="shared" si="7"/>
-        <v>19.029312035007308</v>
+        <v>2.3130436774841066</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7094,7 +7094,7 @@
         <v>35.691361111111114</v>
       </c>
       <c r="T87">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U87">
         <v>-0.34486146469560097</v>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="W87">
         <f t="shared" si="7"/>
-        <v>16.835287525203391</v>
+        <v>0.1190191676801895</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
         <v>35.261250000000004</v>
       </c>
       <c r="T88">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U88">
         <v>-0.34486146469560097</v>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="W88">
         <f t="shared" si="7"/>
-        <v>17.23332456224043</v>
+        <v>0.51705620471722824</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -7226,7 +7226,7 @@
         <v>39.161638888888888</v>
       </c>
       <c r="T89">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U89">
         <v>-0.34486146469560097</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="W89">
         <f t="shared" si="7"/>
-        <v>15.521959242375104</v>
+        <v>-1.1943091151480978</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -7292,7 +7292,7 @@
         <v>44.728611111111114</v>
       </c>
       <c r="T90">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U90">
         <v>-0.34486146469560097</v>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="W90">
         <f t="shared" si="7"/>
-        <v>25.03709055550642</v>
+        <v>8.3208221979832189</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -7358,7 +7358,7 @@
         <v>50.603361111111113</v>
       </c>
       <c r="T91">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U91">
         <v>-0.34486146469560097</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="W91">
         <f t="shared" si="7"/>
-        <v>28.781726919142788</v>
+        <v>12.065458561619582</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -7424,7 +7424,7 @@
         <v>33.22647222222222</v>
       </c>
       <c r="T92">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U92">
         <v>-0.34486146469560097</v>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="W92">
         <f t="shared" si="7"/>
-        <v>14.851474393890253</v>
+        <v>-1.8647939636329482</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -7490,7 +7490,7 @@
         <v>35.774416666666667</v>
       </c>
       <c r="T93">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U93">
         <v>-0.34486146469560097</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="W93">
         <f t="shared" si="7"/>
-        <v>13.065933989849853</v>
+        <v>-3.6503343676733486</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -7556,7 +7556,7 @@
         <v>32.459305555555559</v>
       </c>
       <c r="T94">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U94">
         <v>-0.34486146469560097</v>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="W94">
         <f t="shared" si="7"/>
-        <v>13.690353181769048</v>
+        <v>-3.0259151757541538</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -7622,7 +7622,7 @@
         <v>24.665972222222223</v>
       </c>
       <c r="T95">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U95">
         <v>-0.34486146469560097</v>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="W95">
         <f t="shared" si="7"/>
-        <v>9.9955956060114719</v>
+        <v>-6.7206727515117297</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>31.885888888888889</v>
       </c>
       <c r="T96">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U96">
         <v>-0.34486146469560097</v>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="W96">
         <f t="shared" si="7"/>
-        <v>12.444977424193286</v>
+        <v>-4.2712909333299152</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -7754,7 +7754,7 @@
         <v>27.107111111111109</v>
       </c>
       <c r="T97">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U97">
         <v>-0.34486146469560097</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="W97">
         <f t="shared" si="7"/>
-        <v>11.811340555506417</v>
+        <v>-4.9049278020167844</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -7820,7 +7820,7 @@
         <v>29.523305555555556</v>
       </c>
       <c r="T98">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U98">
         <v>-0.34486146469560097</v>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="W98">
         <f t="shared" si="7"/>
-        <v>13.392686515102378</v>
+        <v>-3.3235818424208237</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -7886,7 +7886,7 @@
         <v>31.501194444444444</v>
       </c>
       <c r="T99">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U99">
         <v>-0.34486146469560097</v>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="W99">
         <f t="shared" si="7"/>
-        <v>15.766636010051872</v>
+        <v>-0.9496323474713293</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>31.968</v>
       </c>
       <c r="T100">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U100">
         <v>-0.34486146469560097</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="W100">
         <f t="shared" si="7"/>
-        <v>13.537835505001365</v>
+        <v>-3.178432852521837</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8018,7 +8018,7 @@
         <v>32.543472222222221</v>
       </c>
       <c r="T101">
-        <v>18.271713787829729</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U101">
         <v>-0.47813505055410843</v>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="W101">
         <f t="shared" si="7"/>
-        <v>14.318658849989792</v>
+        <v>-2.3976095075333816</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -8084,7 +8084,7 @@
         <v>37.282194444444443</v>
       </c>
       <c r="T102">
-        <v>18.271713787829729</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U102">
         <v>-0.47813505055410843</v>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="W102">
         <f t="shared" si="7"/>
-        <v>21.132271515102452</v>
+        <v>4.4160031575792811</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>36.827444444444446</v>
       </c>
       <c r="T103">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U103">
         <v>-0.47813505055410133</v>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="W103">
         <f t="shared" si="7"/>
-        <v>20.646851481432435</v>
+        <v>3.9305831239092317</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
@@ -8216,7 +8216,7 @@
         <v>33.868222222222222</v>
       </c>
       <c r="T104">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U104">
         <v>-0.47813505055410133</v>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="W104">
         <f t="shared" si="7"/>
-        <v>14.656117474698423</v>
+        <v>-2.0601508828247788</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>31.495222222222221</v>
       </c>
       <c r="T105">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U105">
         <v>-0.47813505055410133</v>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="W105">
         <f t="shared" si="7"/>
-        <v>13.538140201971153</v>
+        <v>-3.1781281555520486</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
@@ -8348,7 +8348,7 @@
         <v>37.883472222222224</v>
       </c>
       <c r="T106">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U106">
         <v>-0.47813505055410133</v>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="W106">
         <f t="shared" si="7"/>
-        <v>19.465337171668121</v>
+        <v>2.7490688141449198</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
@@ -8414,7 +8414,7 @@
         <v>38.94661111111111</v>
       </c>
       <c r="T107">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U107">
         <v>-0.47813505055410133</v>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="W107">
         <f t="shared" si="7"/>
-        <v>19.344233636314584</v>
+        <v>2.6279652787913825</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
@@ -8480,7 +8480,7 @@
         <v>33.654166666666669</v>
       </c>
       <c r="T108">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U108">
         <v>-0.47813505055410133</v>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="W108">
         <f t="shared" si="7"/>
-        <v>17.792622525203477</v>
+        <v>1.0763541676802753</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
@@ -8546,7 +8546,7 @@
         <v>35.506833333333333</v>
       </c>
       <c r="T109">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U109">
         <v>-0.47813505055410133</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="W109">
         <f t="shared" si="7"/>
-        <v>17.885516464597412</v>
+        <v>1.1692481070742105</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
         <v>41.999944444444445</v>
       </c>
       <c r="T110">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U110">
         <v>-0.47813505055410133</v>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="W110">
         <f t="shared" si="7"/>
-        <v>21.677415454496405</v>
+        <v>4.9611470969732032</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
@@ -8678,7 +8678,7 @@
         <v>38.397277777777781</v>
       </c>
       <c r="T111">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U111">
         <v>-0.47813505055410133</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="W111">
         <f t="shared" si="7"/>
-        <v>16.679142727223677</v>
+        <v>-3.7125630299524204E-2</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>37.535805555555555</v>
       </c>
       <c r="T112">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U112">
         <v>-0.47813505055410133</v>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="W112">
         <f t="shared" si="7"/>
-        <v>20.510397777728727</v>
+        <v>3.7941294202055253</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
@@ -8810,7 +8810,7 @@
         <v>32.516166666666663</v>
       </c>
       <c r="T113">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U113">
         <v>-0.47813505055410133</v>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="W113">
         <f t="shared" si="7"/>
-        <v>15.692880100961045</v>
+        <v>-1.023388256562157</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
@@ -8876,7 +8876,7 @@
         <v>34.069638888888889</v>
       </c>
       <c r="T114">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U114">
         <v>-0.47813505055410133</v>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="W114">
         <f t="shared" si="7"/>
-        <v>14.403059393890342</v>
+        <v>-2.3132089636328601</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
@@ -8942,7 +8942,7 @@
         <v>39.27225</v>
       </c>
       <c r="T115">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U115">
         <v>-0.47813505055410133</v>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="W115">
         <f t="shared" si="7"/>
-        <v>17.155933131264081</v>
+        <v>0.43966477374087987</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
@@ -9008,7 +9008,7 @@
         <v>27.839333333333332</v>
       </c>
       <c r="T116">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U116">
         <v>-0.47813505055410133</v>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="W116">
         <f t="shared" si="7"/>
-        <v>10.441516464597413</v>
+        <v>-6.2747518929257886</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
@@ -9074,7 +9074,7 @@
         <v>46.703916666666665</v>
       </c>
       <c r="T117">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U117">
         <v>-0.47813505055410133</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="W117">
         <f t="shared" si="7"/>
-        <v>24.163109898940849</v>
+        <v>7.4468415414176476</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
@@ -9140,7 +9140,7 @@
         <v>35.568027777777779</v>
       </c>
       <c r="T118">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U118">
         <v>-0.47813505055410133</v>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="W118">
         <f t="shared" si="7"/>
-        <v>17.319286666617618</v>
+        <v>0.60301830909441634</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
@@ -9206,7 +9206,7 @@
         <v>37.284777777777776</v>
       </c>
       <c r="T119">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U119">
         <v>-0.47813505055410133</v>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="W119">
         <f t="shared" si="7"/>
-        <v>18.77870333328428</v>
+        <v>2.0624349757610787</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>42.640999999999998</v>
       </c>
       <c r="T120">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U120">
         <v>-0.47813505055410133</v>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="W120">
         <f t="shared" si="7"/>
-        <v>22.78428919187014</v>
+        <v>6.0680208343469388</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
@@ -9338,7 +9338,7 @@
         <v>36.972694444444443</v>
       </c>
       <c r="T121">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U121">
         <v>-0.47813505055410133</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="W121">
         <f t="shared" si="7"/>
-        <v>16.099104848435797</v>
+        <v>-0.6171635090874048</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
@@ -9404,7 +9404,7 @@
         <v>29.601166666666664</v>
       </c>
       <c r="T122">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U122">
         <v>-0.47813505055410133</v>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="W122">
         <f t="shared" si="7"/>
-        <v>12.658198282779228</v>
+        <v>-4.0580700747439735</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>40.162305555555555</v>
       </c>
       <c r="T123">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U123">
         <v>-0.47813505055410133</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="W123">
         <f t="shared" si="7"/>
-        <v>25.176897777728726</v>
+        <v>8.4606294202055246</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>28.339805555555557</v>
       </c>
       <c r="T124">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U124">
         <v>-0.47813505055410133</v>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="W124">
         <f t="shared" si="7"/>
-        <v>10.999098114429064</v>
+        <v>-5.717170243094138</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
         <v>34.878805555555559</v>
       </c>
       <c r="T125">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U125">
         <v>-0.47813505055410133</v>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="W125">
         <f t="shared" si="7"/>
-        <v>17.082416536747488</v>
+        <v>0.366148179224286</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
@@ -9668,7 +9668,7 @@
         <v>35.68727777777778</v>
       </c>
       <c r="T126">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U126">
         <v>-0.47813505055410133</v>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="W126">
         <f t="shared" si="7"/>
-        <v>17.565506363587314</v>
+        <v>0.84923800606411248</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
@@ -9734,7 +9734,7 @@
         <v>36.581888888888884</v>
       </c>
       <c r="T127">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U127">
         <v>-0.47813505055410133</v>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="W127">
         <f t="shared" si="7"/>
-        <v>17.961026565607508</v>
+        <v>1.2447582080843063</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
@@ -9800,7 +9800,7 @@
         <v>34.806000000000004</v>
       </c>
       <c r="T128">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U128">
         <v>-0.47813505055410133</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="W128">
         <f t="shared" si="7"/>
-        <v>14.533092222173174</v>
+        <v>-2.1831761353500276</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
@@ -9866,7 +9866,7 @@
         <v>33.733027777777778</v>
       </c>
       <c r="T129">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U129">
         <v>-0.47813505055410133</v>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="W129">
         <f t="shared" si="7"/>
-        <v>16.018548030253982</v>
+        <v>-0.69772032726922006</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
@@ -9932,7 +9932,7 @@
         <v>40.48063888888889</v>
       </c>
       <c r="T130">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U130">
         <v>-0.47813505055410133</v>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="W130">
         <f t="shared" si="7"/>
-        <v>18.188018989849937</v>
+        <v>1.4717506323267351</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
@@ -9998,7 +9998,7 @@
         <v>35.067916666666669</v>
       </c>
       <c r="T131">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U131">
         <v>-0.47813505055410133</v>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="W131">
         <f t="shared" ref="W131:W160" si="11">S131-T131+U131+V131</f>
-        <v>16.924084646415597</v>
+        <v>0.20781628889239556</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
         <v>39.018527777777777</v>
       </c>
       <c r="T132">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U132">
         <v>-0.47813505055410133</v>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="W132">
         <f t="shared" si="11"/>
-        <v>20.628332121163069</v>
+        <v>3.9120637636398676</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
@@ -10130,7 +10130,7 @@
         <v>36.242750000000001</v>
       </c>
       <c r="T133">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U133">
         <v>-0.47813505055410133</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="W133">
         <f t="shared" si="11"/>
-        <v>16.725221010051964</v>
+        <v>8.9526525287624281E-3</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
@@ -10196,7 +10196,7 @@
         <v>29.248999999999999</v>
       </c>
       <c r="T134">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U134">
         <v>-0.47813505055410133</v>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="W134">
         <f t="shared" si="11"/>
-        <v>12.316925555506504</v>
+        <v>-4.3993428020166974</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
@@ -10262,7 +10262,7 @@
         <v>32.78691666666667</v>
       </c>
       <c r="T135">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U135">
         <v>-0.47813505055410133</v>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="W135">
         <f t="shared" si="11"/>
-        <v>14.50272101005196</v>
+        <v>-2.2135473474712413</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>35.836277777777781</v>
       </c>
       <c r="T136">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U136">
         <v>-0.47813505055410133</v>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="W136">
         <f t="shared" si="11"/>
-        <v>14.04528844914881</v>
+        <v>-2.6709799083743917</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
@@ -10394,7 +10394,7 @@
         <v>31.873944444444444</v>
       </c>
       <c r="T137">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U137">
         <v>-0.47813505055410133</v>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="W137">
         <f t="shared" si="11"/>
-        <v>12.884597272678221</v>
+        <v>-3.8316710848449809</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
         <v>33.162722222222222</v>
       </c>
       <c r="T138">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U138">
         <v>-0.47813505055410133</v>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="W138">
         <f t="shared" si="11"/>
-        <v>15.001523198604147</v>
+        <v>-1.7147451589190545</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
@@ -10526,7 +10526,7 @@
         <v>37.830944444444441</v>
       </c>
       <c r="T139">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U139">
         <v>-0.47813505055410133</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="W139">
         <f t="shared" si="11"/>
-        <v>14.057991212072157</v>
+        <v>-2.658277145451045</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>34.362805555555553</v>
       </c>
       <c r="T140">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U140">
         <v>-0.47813505055410133</v>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="W140">
         <f t="shared" si="11"/>
-        <v>14.53801141409236</v>
+        <v>-2.1782569434308421</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
@@ -10658,7 +10658,7 @@
         <v>42.928222222222225</v>
       </c>
       <c r="T141">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U141">
         <v>-0.47813505055410133</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="W141">
         <f t="shared" si="11"/>
-        <v>20.973314444395395</v>
+        <v>4.2570460868721938</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
@@ -10724,7 +10724,7 @@
         <v>39.906888888888886</v>
       </c>
       <c r="T142">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U142">
         <v>-0.47813505055410133</v>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="W142">
         <f t="shared" si="11"/>
-        <v>21.398617474698419</v>
+        <v>4.6823491171752174</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
@@ -10790,7 +10790,7 @@
         <v>42.569183333333335</v>
       </c>
       <c r="T143">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U143">
         <v>-0.47813505055410133</v>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="W143">
         <f t="shared" si="11"/>
-        <v>19.72742707065802</v>
+        <v>3.0111587131348188</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
         <v>35.374694444444444</v>
       </c>
       <c r="T144">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U144">
         <v>-0.47813505055410133</v>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="W144">
         <f t="shared" si="11"/>
-        <v>16.472468484799432</v>
+        <v>-0.24379987272376979</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
@@ -10922,7 +10922,7 @@
         <v>39.197000000000003</v>
       </c>
       <c r="T145">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U145">
         <v>-0.47813505055410133</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="W145">
         <f t="shared" si="11"/>
-        <v>24.393349797930753</v>
+        <v>7.6770814404075498</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
@@ -10988,7 +10988,7 @@
         <v>32.500527777777776</v>
       </c>
       <c r="T146">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U146">
         <v>-0.47813505055410133</v>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="W146">
         <f t="shared" si="11"/>
-        <v>12.926342727223673</v>
+        <v>-3.7899256302995283</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
@@ -11054,7 +11054,7 @@
         <v>32.925166666666669</v>
       </c>
       <c r="T147">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U147">
         <v>-0.47813505055410133</v>
@@ -11064,7 +11064,7 @@
       </c>
       <c r="W147">
         <f t="shared" si="11"/>
-        <v>17.496122525203475</v>
+        <v>0.77985416768027527</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
@@ -11120,7 +11120,7 @@
         <v>38.139611111111108</v>
       </c>
       <c r="T148">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U148">
         <v>-0.47813505055410133</v>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="W148">
         <f t="shared" si="11"/>
-        <v>21.875718484799428</v>
+        <v>5.1594501272762283</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
@@ -11186,7 +11186,7 @@
         <v>32.230361111111115</v>
       </c>
       <c r="T149">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U149">
         <v>-0.47813505055410133</v>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="W149">
         <f t="shared" si="11"/>
-        <v>16.362529090860043</v>
+        <v>-0.35373926666315825</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
         <v>31.631083333333336</v>
       </c>
       <c r="T150">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U150">
         <v>-0.47813505055410133</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="W150">
         <f t="shared" si="11"/>
-        <v>13.067645252476201</v>
+        <v>-3.648623105047001</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
@@ -11318,7 +11318,7 @@
         <v>35.353055555555557</v>
       </c>
       <c r="T151">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U151">
         <v>-0.57619530307939826</v>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="W151">
         <f t="shared" si="11"/>
-        <v>17.85717843429434</v>
+        <v>1.1409100767711386</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
@@ -11384,7 +11384,7 @@
         <v>25.877305555555555</v>
       </c>
       <c r="T152">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U152">
         <v>-0.57619530307939826</v>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="W152">
         <f t="shared" si="11"/>
-        <v>7.6574738888397924</v>
+        <v>-9.0587944686834092</v>
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
@@ -11450,7 +11450,7 @@
         <v>38.776583333333335</v>
       </c>
       <c r="T153">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U153">
         <v>-0.57619530307939826</v>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="W153">
         <f t="shared" si="11"/>
-        <v>18.405615302981207</v>
+        <v>1.6893469454580057</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
@@ -11516,7 +11516,7 @@
         <v>28.139083333333332</v>
       </c>
       <c r="T154">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U154">
         <v>-0.57619530307939826</v>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="W154">
         <f t="shared" si="11"/>
-        <v>10.326543333284238</v>
+        <v>-6.3897250242389632</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
@@ -11582,7 +11582,7 @@
         <v>42.154388888888889</v>
       </c>
       <c r="T155">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U155">
         <v>-0.57619530307939826</v>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="W155">
         <f t="shared" si="11"/>
-        <v>20.265339307734621</v>
+        <v>3.5490709502114193</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
         <v>30.715416666666666</v>
       </c>
       <c r="T156">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U156">
         <v>-0.57619530307939826</v>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="W156">
         <f t="shared" si="11"/>
-        <v>10.792562272678175</v>
+        <v>-5.9237060848450263</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
@@ -11714,7 +11714,7 @@
         <v>40.453499999999998</v>
       </c>
       <c r="T157">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U157">
         <v>-0.57619530307939826</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="W157">
         <f t="shared" si="11"/>
-        <v>18.400531969647872</v>
+        <v>1.6842636121246706</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
@@ -11780,7 +11780,7 @@
         <v>24.393388888888889</v>
       </c>
       <c r="T158">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U158">
         <v>-0.57619530307939826</v>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="W158">
         <f t="shared" si="11"/>
-        <v>5.7870572221731251</v>
+        <v>-10.929211135350076</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
@@ -11846,7 +11846,7 @@
         <v>35.028722222222221</v>
       </c>
       <c r="T159">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U159">
         <v>-0.57619530307939826</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="W159">
         <f t="shared" si="11"/>
-        <v>16.028436010051912</v>
+        <v>-0.6878323474712893</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
@@ -11912,7 +11912,7 @@
         <v>38.996444444444442</v>
       </c>
       <c r="T160">
-        <v>18.2717137878297</v>
+        <v>34.987982145352902</v>
       </c>
       <c r="U160">
         <v>-0.57619530307939826</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="W160">
         <f t="shared" si="11"/>
-        <v>19.324199141365042</v>
+        <v>2.6079307838418408</v>
       </c>
     </row>
   </sheetData>
@@ -11935,7 +11935,7 @@
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11983,7 +11983,7 @@
         <v>-1.2926687386687377</v>
       </c>
       <c r="G2">
-        <v>18.036667881963769</v>
+        <v>1.3203995244405959</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12006,7 +12006,7 @@
         <v>-5.026353030303035</v>
       </c>
       <c r="G3">
-        <v>10.680345361891247</v>
+        <v>-6.0359229956319265</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12029,7 +12029,7 @@
         <v>-6.2572268799102133</v>
       </c>
       <c r="G4">
-        <v>10.761423476369336</v>
+        <v>-5.9548448811538659</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12052,7 +12052,7 @@
         <v>-1.8806262626262651</v>
       </c>
       <c r="G5">
-        <v>14.911469099264959</v>
+        <v>-1.8047992582582424</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12075,7 +12075,7 @@
         <v>-0.33701136363636763</v>
       </c>
       <c r="G6">
-        <v>14.455686270982131</v>
+        <v>-2.2605820865410706</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12098,7 +12098,7 @@
         <v>-5.7975555555555545</v>
       </c>
       <c r="G7">
-        <v>12.210161018456876</v>
+        <v>-4.5061073390663253</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12121,7 +12121,7 @@
         <v>-0.32326262626261837</v>
       </c>
       <c r="G8">
-        <v>18.7733630386589</v>
+        <v>2.0570946811356983</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12144,7 +12144,7 @@
         <v>3.9526527777777751</v>
       </c>
       <c r="G9">
-        <v>21.45541859421445</v>
+        <v>4.7391502366912484</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12167,7 +12167,7 @@
         <v>-6.213867424242423</v>
       </c>
       <c r="G10">
-        <v>12.247655967951829</v>
+        <v>-4.4686123895713727</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12190,7 +12190,7 @@
         <v>-0.47089898989899126</v>
       </c>
       <c r="G11">
-        <v>17.760605462901317</v>
+        <v>1.0443371053781156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12213,7 +12213,7 @@
         <v>-5.7418484848484859</v>
       </c>
       <c r="G12">
-        <v>11.934443846739708</v>
+        <v>-4.781824510783494</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12236,7 +12236,7 @@
         <v>1.9421691919191986</v>
       </c>
       <c r="G13">
-        <v>18.636370614416474</v>
+        <v>1.9201022568932729</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -12259,7 +12259,7 @@
         <v>1.7207191919191942</v>
       </c>
       <c r="G14">
-        <v>19.257605462901321</v>
+        <v>2.5413371053781191</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12282,7 +12282,7 @@
         <v>-3.2234595959595964</v>
       </c>
       <c r="G15">
-        <v>15.342256978052841</v>
+        <v>-1.3740113794703603</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12305,7 +12305,7 @@
         <v>-1.0705416666666636</v>
       </c>
       <c r="G16">
-        <v>15.917534755830619</v>
+        <v>-0.79873360169258234</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12328,7 +12328,7 @@
         <v>-4.3136101010100987</v>
       </c>
       <c r="G17">
-        <v>15.487972634618497</v>
+        <v>-1.2282957229047042</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12351,7 +12351,7 @@
         <v>-2.9607474747474747</v>
       </c>
       <c r="G18">
-        <v>12.21566606896193</v>
+        <v>-4.5006022885612715</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12374,7 +12374,7 @@
         <v>-5.3079909090909112</v>
       </c>
       <c r="G19">
-        <v>11.72861051340637</v>
+        <v>-4.987657844116832</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12397,7 +12397,7 @@
         <v>-5.466054040404039</v>
       </c>
       <c r="G20">
-        <v>13.682335260881121</v>
+        <v>-3.0339330966420803</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12420,7 +12420,7 @@
         <v>-0.97410353535354233</v>
       </c>
       <c r="G21">
-        <v>19.320734250780109</v>
+        <v>2.6044658932569078</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12443,7 +12443,7 @@
         <v>-4.3099055555555594</v>
       </c>
       <c r="G22">
-        <v>11.517272129567985</v>
+        <v>-5.1989962279552167</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -12466,7 +12466,7 @@
         <v>-5.0898459595959586</v>
       </c>
       <c r="G23">
-        <v>10.735416068961928</v>
+        <v>-5.9808522885612732</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -12489,7 +12489,7 @@
         <v>-1.1008890572390548</v>
       </c>
       <c r="G24">
-        <v>15.367838627884488</v>
+        <v>-1.3484297296387133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
         <v>-7.1860795454545432</v>
       </c>
       <c r="G25">
-        <v>10.254282050202907</v>
+        <v>-6.461986307320295</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -12535,7 +12535,7 @@
         <v>5.6940631313131362</v>
       </c>
       <c r="G26">
-        <v>23.841969099264961</v>
+        <v>7.1257007417417597</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -12558,7 +12558,7 @@
         <v>-7.1661767676767703</v>
       </c>
       <c r="G27">
-        <v>10.924933745729604</v>
+        <v>-5.791334611793598</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12581,7 +12581,7 @@
         <v>-4.9322070707070722</v>
       </c>
       <c r="G28">
-        <v>13.076471624517481</v>
+        <v>-3.6397967330057206</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12604,7 +12604,7 @@
         <v>1.2036534090909115</v>
       </c>
       <c r="G29">
-        <v>18.211455210376073</v>
+        <v>1.4951868528528713</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -12627,7 +12627,7 @@
         <v>1.0191500000000033</v>
       </c>
       <c r="G30">
-        <v>24.065815058860913</v>
+        <v>7.3495467013377116</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12650,7 +12650,7 @@
         <v>-1.9217262626262617</v>
       </c>
       <c r="G31">
-        <v>15.156408493204353</v>
+        <v>-1.5598598643188488</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12673,7 +12673,7 @@
         <v>-4.0797606060606064</v>
       </c>
       <c r="G32">
-        <v>13.088155967951824</v>
+        <v>-3.6281123895713776</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12696,7 +12696,7 @@
         <v>1.8323585858585929</v>
       </c>
       <c r="G33">
-        <v>19.404044856840724</v>
+        <v>2.6877764993175219</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
         <v>3.4367651515151465</v>
       </c>
       <c r="G34">
-        <v>21.761693846739703</v>
+        <v>5.0454254892165018</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12742,7 +12742,7 @@
         <v>-2.677515151515145</v>
       </c>
       <c r="G35">
-        <v>15.160322634618492</v>
+        <v>-1.5559457229047098</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12765,7 +12765,7 @@
         <v>-1.1781248408454204</v>
       </c>
       <c r="G36">
-        <v>17.462076581651854</v>
+        <v>0.74580822412865189</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12788,7 +12788,7 @@
         <v>2.9285292929292908</v>
       </c>
       <c r="G37">
-        <v>20.608882230578086</v>
+        <v>3.8926138730548843</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12811,7 +12811,7 @@
         <v>-2.664517676767673</v>
       </c>
       <c r="G38">
-        <v>15.024569267615128</v>
+        <v>-1.6916990899080737</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -12834,7 +12834,7 @@
         <v>6.4702030303030398</v>
       </c>
       <c r="G39">
-        <v>25.698898392194256</v>
+        <v>8.9826300346710539</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
         <v>-1.635919949494955</v>
       </c>
       <c r="G40">
-        <v>16.018751927547783</v>
+        <v>-0.69751642997541907</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>-4.7089805555555557</v>
       </c>
       <c r="G41">
-        <v>18.485954957850819</v>
+        <v>1.769686600327617</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12903,7 +12903,7 @@
         <v>1.3297431818181877</v>
       </c>
       <c r="G42">
-        <v>18.119246877042734</v>
+        <v>1.4029785195195323</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12926,7 +12926,7 @@
         <v>2.5369419191919178</v>
       </c>
       <c r="G43">
-        <v>21.334650917446776</v>
+        <v>4.6183825599235746</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12949,7 +12949,7 @@
         <v>6.1641262626262616</v>
       </c>
       <c r="G44">
-        <v>25.506236776032633</v>
+        <v>8.7899684185094316</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -12972,7 +12972,7 @@
         <v>-3.7684030303030305</v>
       </c>
       <c r="G45">
-        <v>11.902034755830618</v>
+        <v>-4.8142336016925835</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -12995,7 +12995,7 @@
         <v>3.8624905627705601</v>
       </c>
       <c r="G46">
-        <v>21.632735621631479</v>
+        <v>4.9164672641082774</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -13018,7 +13018,7 @@
         <v>2.6289924242424227</v>
       </c>
       <c r="G47">
-        <v>18.592890816436672</v>
+        <v>1.8766224589134719</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>-5.5973838383838341</v>
       </c>
       <c r="G48">
-        <v>11.633181220477079</v>
+        <v>-5.0830871370461228</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -13064,7 +13064,7 @@
         <v>-0.70514898989898711</v>
       </c>
       <c r="G49">
-        <v>16.340658493204351</v>
+        <v>-0.37560986431885013</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -13087,7 +13087,7 @@
         <v>7.3571944444444455</v>
       </c>
       <c r="G50">
-        <v>25.677302432598285</v>
+        <v>8.9610340750750836</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -13110,7 +13110,7 @@
         <v>4.8582571872571876</v>
       </c>
       <c r="G51">
-        <v>22.885349102515043</v>
+        <v>6.1690807449918701</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -13133,7 +13133,7 @@
         <v>-2.3532696969697007</v>
       </c>
       <c r="G52">
-        <v>12.05118398984993</v>
+        <v>-4.6650843676732432</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -13156,7 +13156,7 @@
         <v>1.2173583052749706</v>
       </c>
       <c r="G53">
-        <v>16.933763956179817</v>
+        <v>0.21749559865661716</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -13179,7 +13179,7 @@
         <v>3.5767070707070658</v>
       </c>
       <c r="G54">
-        <v>19.066557727223589</v>
+        <v>2.3502893697003877</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -13202,7 +13202,7 @@
         <v>0.46482196969696687</v>
       </c>
       <c r="G55">
-        <v>13.955274898940765</v>
+        <v>-2.7609934585824369</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -13225,7 +13225,7 @@
         <v>2.2611944444444418</v>
       </c>
       <c r="G56">
-        <v>18.966666313082172</v>
+        <v>2.2503979555589702</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -13248,7 +13248,7 @@
         <v>0.54043181818182262</v>
       </c>
       <c r="G57">
-        <v>18.33481277772864</v>
+        <v>1.6185444202054384</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -13271,7 +13271,7 @@
         <v>-5.0516249999999978</v>
       </c>
       <c r="G58">
-        <v>11.148896111061976</v>
+        <v>-5.5673722464612254</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -13294,7 +13294,7 @@
         <v>-3.09311111111111</v>
       </c>
       <c r="G59">
-        <v>11.54534560601147</v>
+        <v>-5.170922751511732</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -13317,7 +13317,7 @@
         <v>-2.0728396464646437</v>
       </c>
       <c r="G60">
-        <v>15.086439040354907</v>
+        <v>-1.6298293171682943</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -13340,7 +13340,7 @@
         <v>-0.27031565656565704</v>
       </c>
       <c r="G61">
-        <v>16.658944090859951</v>
+        <v>-5.7324266663250967E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -13363,7 +13363,7 @@
         <v>1.9292626262626271</v>
       </c>
       <c r="G62">
-        <v>18.30331025247612</v>
+        <v>1.5870418949529181</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -13386,7 +13386,7 @@
         <v>-2.2655669191919152</v>
       </c>
       <c r="G63">
-        <v>13.12638979793066</v>
+        <v>-3.5898785595925418</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
         <v>0.60930252525253081</v>
       </c>
       <c r="G64">
-        <v>16.843944090859956</v>
+        <v>0.12767573333675486</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -13432,7 +13432,7 @@
         <v>1.5432626262626243</v>
       </c>
       <c r="G65">
-        <v>18.806734494900361</v>
+        <v>2.0904661373771596</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -13455,7 +13455,7 @@
         <v>-1.2444861111111116</v>
       </c>
       <c r="G66">
-        <v>14.44134560601147</v>
+        <v>-2.2749227515117312</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -13478,7 +13478,7 @@
         <v>-2.9017045454545425</v>
       </c>
       <c r="G67">
-        <v>15.597633484799353</v>
+        <v>-1.1186348727238489</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -13501,7 +13501,7 @@
         <v>-1.5658030303030301</v>
       </c>
       <c r="G68">
-        <v>12.308365808031674</v>
+        <v>-4.4079025494915278</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -13524,7 +13524,7 @@
         <v>3.267575757575969E-2</v>
       </c>
       <c r="G69">
-        <v>15.76703247469834</v>
+        <v>-0.94923588282486193</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -13547,7 +13547,7 @@
         <v>0.22372373737373863</v>
       </c>
       <c r="G70">
-        <v>18.069868333284198</v>
+        <v>1.3535999757609964</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -13570,7 +13570,7 @@
         <v>2.1476186868686824</v>
       </c>
       <c r="G71">
-        <v>21.140211767627633</v>
+        <v>4.4239434101044317</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -13593,7 +13593,7 @@
         <v>4.4434555555555555</v>
       </c>
       <c r="G72">
-        <v>18.968388535304399</v>
+        <v>2.2521201777811974</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>-4.0222904040404046</v>
       </c>
       <c r="G73">
-        <v>10.500726919142782</v>
+        <v>-6.2155414383804199</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -13639,7 +13639,7 @@
         <v>4.7068609427609402</v>
       </c>
       <c r="G74">
-        <v>19.873343922509783</v>
+        <v>3.1570755649865809</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -13662,7 +13662,7 @@
         <v>5.8509898989899014</v>
       </c>
       <c r="G75">
-        <v>21.98910678927265</v>
+        <v>5.2728384317494488</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -13685,7 +13685,7 @@
         <v>2.6066742424242406</v>
       </c>
       <c r="G76">
-        <v>19.452335505001365</v>
+        <v>2.7360671474781633</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -13708,7 +13708,7 @@
         <v>5.4066287878787875</v>
       </c>
       <c r="G77">
-        <v>22.195494595910461</v>
+        <v>5.479226238387259</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -13731,7 +13731,7 @@
         <v>5.2870707070707041</v>
       </c>
       <c r="G78">
-        <v>21.993504696920557</v>
+        <v>5.2772363393973549</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -13754,7 +13754,7 @@
         <v>1.796847853535354</v>
       </c>
       <c r="G79">
-        <v>17.502404949445815</v>
+        <v>0.78613659192261309</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -13777,7 +13777,7 @@
         <v>2.4622333333333373</v>
       </c>
       <c r="G80">
-        <v>24.206653686819546</v>
+        <v>7.4903853292963447</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -13800,7 +13800,7 @@
         <v>-1.4579207070707056</v>
       </c>
       <c r="G81">
-        <v>14.317969343385208</v>
+        <v>-2.3982990141379936</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -13823,7 +13823,7 @@
         <v>1.9567949494949488</v>
       </c>
       <c r="G82">
-        <v>17.822466818132678</v>
+        <v>1.1061984606094768</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -13846,7 +13846,7 @@
         <v>-3.3247803030302947</v>
       </c>
       <c r="G83">
-        <v>12.944661262577135</v>
+        <v>-3.7716070949460665</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -13869,7 +13869,7 @@
         <v>-0.79690151515151797</v>
       </c>
       <c r="G84">
-        <v>16.225782474698338</v>
+        <v>-0.49048588282486349</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -13892,7 +13892,7 @@
         <v>4.0735959595959628</v>
       </c>
       <c r="G85">
-        <v>20.609189040354899</v>
+        <v>3.8929206828316971</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -13915,7 +13915,7 @@
         <v>1.6913553178847351</v>
       </c>
       <c r="G86">
-        <v>19.029312035007308</v>
+        <v>2.3130436774841066</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>0.45717929292929682</v>
       </c>
       <c r="G87">
-        <v>16.835287525203391</v>
+        <v>0.1190191676801895</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>0.84648232323232975</v>
       </c>
       <c r="G88">
-        <v>17.23332456224043</v>
+        <v>0.51705620471722824</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -13984,7 +13984,7 @@
         <v>-2.4044914141414111</v>
       </c>
       <c r="G89">
-        <v>15.521959242375104</v>
+        <v>-1.1943091151480978</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -14007,7 +14007,7 @@
         <v>8.6846633838383838</v>
       </c>
       <c r="G90">
-        <v>25.03709055550642</v>
+        <v>8.3208221979832189</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -14030,7 +14030,7 @@
         <v>6.8890361111111105</v>
       </c>
       <c r="G91">
-        <v>28.781726919142788</v>
+        <v>12.065458561619582</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -14053,7 +14053,7 @@
         <v>-0.63578459595959202</v>
       </c>
       <c r="G92">
-        <v>14.851474393890253</v>
+        <v>-1.8647939636329482</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -14076,7 +14076,7 @@
         <v>-4.4295303030303046</v>
       </c>
       <c r="G93">
-        <v>13.065933989849853</v>
+        <v>-3.6503343676733486</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -14099,7 +14099,7 @@
         <v>-4.3495126262626229</v>
       </c>
       <c r="G94">
-        <v>13.690353181769048</v>
+        <v>-3.0259151757541538</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -14122,7 +14122,7 @@
         <v>-4.3725974747474758</v>
       </c>
       <c r="G95">
-        <v>9.9955956060114719</v>
+        <v>-6.7206727515117297</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -14145,7 +14145,7 @@
         <v>-4.0230229292929316</v>
       </c>
       <c r="G96">
-        <v>12.444977424193286</v>
+        <v>-4.2712909333299152</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -14168,7 +14168,7 @@
         <v>-2.8503131313131327</v>
       </c>
       <c r="G97">
-        <v>11.811340555506417</v>
+        <v>-4.9049278020167844</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -14191,7 +14191,7 @@
         <v>-2.5356338383838342</v>
       </c>
       <c r="G98">
-        <v>13.392686515102378</v>
+        <v>-3.3235818424208237</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -14214,7 +14214,7 @@
         <v>2.3073232323234549E-2</v>
       </c>
       <c r="G99">
-        <v>15.766636010051872</v>
+        <v>-0.9496323474713293</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -14237,7 +14237,7 @@
         <v>-3.4800277777777744</v>
       </c>
       <c r="G100">
-        <v>13.537835505001365</v>
+        <v>-3.178432852521837</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -14260,7 +14260,7 @@
         <v>-3.5751594794094785</v>
       </c>
       <c r="G101">
-        <v>14.318658849989792</v>
+        <v>-2.3976095075333816</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -14283,7 +14283,7 @@
         <v>6.8610914141414092</v>
       </c>
       <c r="G102">
-        <v>21.132271515102452</v>
+        <v>4.4160031575792811</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -14306,7 +14306,7 @@
         <v>5.0637194163860855</v>
       </c>
       <c r="G103">
-        <v>20.646851481432435</v>
+        <v>3.9305831239092317</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -14329,7 +14329,7 @@
         <v>-0.70045959595960028</v>
       </c>
       <c r="G104">
-        <v>14.656117474698423</v>
+        <v>-2.0601508828247788</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -14352,7 +14352,7 @@
         <v>0.18096085858585553</v>
       </c>
       <c r="G105">
-        <v>13.538140201971153</v>
+        <v>-3.1781281555520486</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -14375,7 +14375,7 @@
         <v>2.8931388888888918</v>
       </c>
       <c r="G106">
-        <v>19.465337171668121</v>
+        <v>2.7490688141449198</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -14398,7 +14398,7 @@
         <v>1.6831262626262671</v>
       </c>
       <c r="G107">
-        <v>19.344233636314584</v>
+        <v>2.6279652787913825</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -14421,7 +14421,7 @@
         <v>1.7253750000000032</v>
       </c>
       <c r="G108">
-        <v>17.792622525203477</v>
+        <v>1.0763541676802753</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -14444,7 +14444,7 @@
         <v>3.3803333333333327</v>
       </c>
       <c r="G109">
-        <v>17.885516464597412</v>
+        <v>1.1692481070742105</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -14467,7 +14467,7 @@
         <v>4.6514103535353541</v>
       </c>
       <c r="G110">
-        <v>21.677415454496405</v>
+        <v>4.9611470969732032</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -14490,7 +14490,7 @@
         <v>-0.11684343434342992</v>
       </c>
       <c r="G111">
-        <v>16.679142727223677</v>
+        <v>-3.7125630299524204E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -14513,7 +14513,7 @@
         <v>4.2696237373737347</v>
       </c>
       <c r="G112">
-        <v>20.510397777728727</v>
+        <v>3.7941294202055253</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -14536,7 +14536,7 @@
         <v>0.43419696969696986</v>
       </c>
       <c r="G113">
-        <v>15.692880100961045</v>
+        <v>-1.023388256562157</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -14559,7 +14559,7 @@
         <v>-1.6983085858585838</v>
       </c>
       <c r="G114">
-        <v>14.403059393890342</v>
+        <v>-2.3132089636328601</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -14582,7 +14582,7 @@
         <v>2.5734848484844974E-2</v>
       </c>
       <c r="G115">
-        <v>17.155933131264081</v>
+        <v>0.43966477374087987</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -14605,7 +14605,7 @@
         <v>-5.1110416666666687</v>
       </c>
       <c r="G116">
-        <v>10.441516464597413</v>
+        <v>-6.2747518929257886</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -14628,7 +14628,7 @@
         <v>5.7970454545454544</v>
       </c>
       <c r="G117">
-        <v>24.163109898940849</v>
+        <v>7.4468415414176476</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -14651,7 +14651,7 @@
         <v>3.5783914141414144</v>
       </c>
       <c r="G118">
-        <v>17.319286666617618</v>
+        <v>0.60301830909441634</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -14674,7 +14674,7 @@
         <v>3.1776202020202007</v>
       </c>
       <c r="G119">
-        <v>18.77870333328428</v>
+        <v>2.0624349757610787</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -14697,7 +14697,7 @@
         <v>5.0714181818181814</v>
       </c>
       <c r="G120">
-        <v>22.78428919187014</v>
+        <v>6.0680208343469388</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -14720,7 +14720,7 @@
         <v>-2.7602146464646538</v>
       </c>
       <c r="G121">
-        <v>16.099104848435797</v>
+        <v>-0.6171635090874048</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -14743,7 +14743,7 @@
         <v>-1.7334611111111151</v>
       </c>
       <c r="G122">
-        <v>12.658198282779228</v>
+        <v>-4.0580700747439735</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -14766,7 +14766,7 @@
         <v>10.78715404040404</v>
       </c>
       <c r="G123">
-        <v>25.176897777728726</v>
+        <v>8.4606294202055246</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -14789,7 +14789,7 @@
         <v>-4.0341112794612783</v>
       </c>
       <c r="G124">
-        <v>10.999098114429064</v>
+        <v>-5.717170243094138</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -14812,7 +14812,7 @@
         <v>1.077573232323239</v>
       </c>
       <c r="G125">
-        <v>17.082416536747488</v>
+        <v>0.366148179224286</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -14835,7 +14835,7 @@
         <v>0.85311868686869019</v>
       </c>
       <c r="G126">
-        <v>17.565506363587314</v>
+        <v>0.84923800606411248</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -14858,7 +14858,7 @@
         <v>1.3054343434343352</v>
       </c>
       <c r="G127">
-        <v>17.961026565607508</v>
+        <v>1.2447582080843063</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -14881,7 +14881,7 @@
         <v>-2.0400681818181781</v>
       </c>
       <c r="G128">
-        <v>14.533092222173174</v>
+        <v>-2.1831761353500276</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -14904,7 +14904,7 @@
         <v>0.44626452020202123</v>
       </c>
       <c r="G129">
-        <v>16.018548030253982</v>
+        <v>-0.69772032726922006</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -14927,7 +14927,7 @@
         <v>-3.423127777777772</v>
       </c>
       <c r="G130">
-        <v>18.188018989849937</v>
+        <v>1.4717506323267351</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -14950,7 +14950,7 @@
         <v>1.2814681818181839</v>
       </c>
       <c r="G131">
-        <v>16.924084646415597</v>
+        <v>0.20781628889239556</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -14973,7 +14973,7 @@
         <v>4.89593383838384</v>
       </c>
       <c r="G132">
-        <v>20.628332121163069</v>
+        <v>3.9120637636398676</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -14996,7 +14996,7 @@
         <v>0.58905303030303457</v>
       </c>
       <c r="G133">
-        <v>16.725221010051964</v>
+        <v>8.9526525287624281E-3</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -15019,7 +15019,7 @@
         <v>-4.5724848484848515</v>
       </c>
       <c r="G134">
-        <v>12.316925555506504</v>
+        <v>-4.3993428020166974</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -15042,7 +15042,7 @@
         <v>-1.8995984848484753</v>
       </c>
       <c r="G135">
-        <v>14.50272101005196</v>
+        <v>-2.2135473474712413</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -15065,7 +15065,7 @@
         <v>-3.1593946821152628</v>
       </c>
       <c r="G136">
-        <v>14.04528844914881</v>
+        <v>-2.6709799083743917</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -15088,7 +15088,7 @@
         <v>-3.3602373737373732</v>
       </c>
       <c r="G137">
-        <v>12.884597272678221</v>
+        <v>-3.8316710848449809</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -15111,7 +15111,7 @@
         <v>-1.2520454545454527</v>
       </c>
       <c r="G138">
-        <v>15.001523198604147</v>
+        <v>-1.7147451589190545</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -15134,7 +15134,7 @@
         <v>-3.7351858585858579</v>
       </c>
       <c r="G139">
-        <v>14.057991212072157</v>
+        <v>-2.658277145451045</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -15157,7 +15157,7 @@
         <v>-1.6811421717171768</v>
       </c>
       <c r="G140">
-        <v>14.53801141409236</v>
+        <v>-2.1782569434308421</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -15180,7 +15180,7 @@
         <v>-0.78610277777777782</v>
       </c>
       <c r="G141">
-        <v>20.973314444395395</v>
+        <v>4.2570460868721938</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -15203,7 +15203,7 @@
         <v>6.044632070707074</v>
       </c>
       <c r="G142">
-        <v>21.398617474698419</v>
+        <v>4.6823491171752174</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -15226,7 +15226,7 @@
         <v>2.3652363636363631</v>
       </c>
       <c r="G143">
-        <v>19.72742707065802</v>
+        <v>3.0111587131348188</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -15249,7 +15249,7 @@
         <v>-1.4341237373737385</v>
       </c>
       <c r="G144">
-        <v>16.472468484799432</v>
+        <v>-0.24379987272376979</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -15272,7 +15272,7 @@
         <v>10.158430303030304</v>
       </c>
       <c r="G145">
-        <v>24.393349797930753</v>
+        <v>7.6770814404075498</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -15295,7 +15295,7 @@
         <v>-3.4083840404040444</v>
       </c>
       <c r="G146">
-        <v>12.926342727223673</v>
+        <v>-3.7899256302995283</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -15318,7 +15318,7 @@
         <v>2.9677424242424273</v>
       </c>
       <c r="G147">
-        <v>17.496122525203475</v>
+        <v>0.77985416768027527</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -15341,7 +15341,7 @@
         <v>6.0806717171717182</v>
       </c>
       <c r="G148">
-        <v>21.875718484799428</v>
+        <v>5.1594501272762283</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -15364,7 +15364,7 @@
         <v>0.75223989898990595</v>
       </c>
       <c r="G149">
-        <v>16.362529090860043</v>
+        <v>-0.35373926666315825</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -15387,7 +15387,7 @@
         <v>-3.816944444444438</v>
       </c>
       <c r="G150">
-        <v>13.067645252476201</v>
+        <v>-3.648623105047001</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -15410,7 +15410,7 @@
         <v>2.4026805555555555</v>
       </c>
       <c r="G151">
-        <v>17.85717843429434</v>
+        <v>1.1409100767711386</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -15433,7 +15433,7 @@
         <v>-8.9568535353535346</v>
       </c>
       <c r="G152">
-        <v>7.6574738888397924</v>
+        <v>-9.0587944686834092</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -15456,7 +15456,7 @@
         <v>1.9305151515151522</v>
       </c>
       <c r="G153">
-        <v>18.405615302981207</v>
+        <v>1.6893469454580057</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -15479,7 +15479,7 @@
         <v>-5.1476799242424249</v>
       </c>
       <c r="G154">
-        <v>10.326543333284238</v>
+        <v>-6.3897250242389632</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -15502,7 +15502,7 @@
         <v>3.1587164289958451</v>
       </c>
       <c r="G155">
-        <v>20.265339307734621</v>
+        <v>3.5490709502114193</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -15525,7 +15525,7 @@
         <v>-5.3285310606060641</v>
       </c>
       <c r="G156">
-        <v>10.792562272678175</v>
+        <v>-5.9237060848450263</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -15548,7 +15548,7 @@
         <v>-3.2608250000000041</v>
       </c>
       <c r="G157">
-        <v>18.400531969647872</v>
+        <v>1.6842636121246706</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -15571,7 +15571,7 @@
         <v>-9.468867929292923</v>
       </c>
       <c r="G158">
-        <v>5.7870572221731251</v>
+        <v>-10.929211135350076</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -15594,7 +15594,7 @@
         <v>-1.7800959595959611</v>
       </c>
       <c r="G159">
-        <v>16.028436010051912</v>
+        <v>-0.6878323474712893</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -15617,7 +15617,7 @@
         <v>3.0875326262626217</v>
       </c>
       <c r="G160">
-        <v>19.324199141365042</v>
+        <v>2.6079307838418408</v>
       </c>
     </row>
   </sheetData>
